--- a/attempt2/large_exam_venues.xlsx
+++ b/attempt2/large_exam_venues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nik/July_Git_Repo/final-year-project-NikKontos.2/attempt2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{864268C0-164C-844E-9AB2-F74EDD053565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873C30A-1BB0-994B-B728-8C57934B629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="960" windowWidth="25040" windowHeight="13620" xr2:uid="{9741ED36-9B77-DB46-998A-990C5AECA1F9}"/>
+    <workbookView xWindow="560" yWindow="2780" windowWidth="25040" windowHeight="13140" xr2:uid="{9741ED36-9B77-DB46-998A-990C5AECA1F9}"/>
   </bookViews>
   <sheets>
     <sheet name="1day_exam_venues" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>exam_id</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Exam74</t>
+  </si>
+  <si>
+    <t>Exam75</t>
   </si>
 </sst>
 </file>
@@ -1147,9 +1150,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16BAE1B-9500-DE42-A01D-3A36D4DA2901}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -3003,7 +3006,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ref="A67:A75" si="2">ROW()-2</f>
+        <f t="shared" ref="A67:A76" si="2">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -3153,20 +3156,20 @@
         <v>45437</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G72">
         <v>23</v>
       </c>
       <c r="H72" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3181,20 +3184,20 @@
         <v>45437</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G73">
         <v>543</v>
       </c>
       <c r="H73" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3250,6 +3253,34 @@
         <v>456</v>
       </c>
       <c r="H75" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45437</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="4">SUM(D76,E76)</f>
+        <v>15</v>
+      </c>
+      <c r="G76">
+        <v>46</v>
+      </c>
+      <c r="H76" s="2">
         <v>18</v>
       </c>
     </row>
